--- a/biology/Botanique/Allium_acuminatum/Allium_acuminatum.xlsx
+++ b/biology/Botanique/Allium_acuminatum/Allium_acuminatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium acuminatum, également connu sous le nom de oignon conique ou oignon de Hooker, est une espèce du genre Allium originaire d'Amérique du Nord.
-Il a pour synonymes[1]:
+Il a pour synonymes:
 Allium acuminatum var. cuspidatum Fernald
 Allium cuspidatum (Fernald) Rydb.
 Allium elwesii Regel
@@ -517,9 +529,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été signalé dans tous les états à l'ouest des montagnes Rocheuses aux États-Unis, ainsi qu'en Colombie-Britannique au Canada[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été signalé dans tous les états à l'ouest des montagnes Rocheuses aux États-Unis, ainsi qu'en Colombie-Britannique au Canada.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium acuminatum produit de 1 à 12 bulbes sphériques, regroupés à la base, de moins de 2 cm de diamètre et sentant l'oignon[3]. La hampe florale mesure jusqu'à 40 cm de haut et porte une ombelle persistante, dressée, lâche, à 10–40 fleurs, hémisphérique, sans bulbilles. Les fleurs campanulées, de 8–15 mm ;à tépales dressés, roses à rose-violet, ou blancs, lancéolés à lancéolés-ovales, inégaux, avec des anthères jaunes[4],[2],[5],[6],[7],[8],[9],[10]. La plante produit également deux ou trois feuilles rainurées qui ont tendance à se flétrir avant la floraison[11]. Ses habitats naturels comprennent des pentes rocheuses ouvertes, parmi les broussailles et les pins[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium acuminatum produit de 1 à 12 bulbes sphériques, regroupés à la base, de moins de 2 cm de diamètre et sentant l'oignon. La hampe florale mesure jusqu'à 40 cm de haut et porte une ombelle persistante, dressée, lâche, à 10–40 fleurs, hémisphérique, sans bulbilles. Les fleurs campanulées, de 8–15 mm ;à tépales dressés, roses à rose-violet, ou blancs, lancéolés à lancéolés-ovales, inégaux, avec des anthères jaunes. La plante produit également deux ou trois feuilles rainurées qui ont tendance à se flétrir avant la floraison. Ses habitats naturels comprennent des pentes rocheuses ouvertes, parmi les broussailles et les pins.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les oignons étaient consommés par les premiers peuples du sud de la Colombie-Britannique. Ils étaient récoltés au début du printemps ou à la fin de l'automne et généralement cuits dans des fosses[3]. Le bulbe et la tige florifère sont comestibles ; cependant, dans les arts culinaires, la tige possède une saveur plus agréable[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oignons étaient consommés par les premiers peuples du sud de la Colombie-Britannique. Ils étaient récoltés au début du printemps ou à la fin de l'automne et généralement cuits dans des fosses. Le bulbe et la tige florifère sont comestibles ; cependant, dans les arts culinaires, la tige possède une saveur plus agréable.
 </t>
         </is>
       </c>
